--- a/ontwikkeling/voorstel 5.1/vvtoevoeging5.1/SymbolenverkeersbordenVV.xlsx
+++ b/ontwikkeling/voorstel 5.1/vvtoevoeging5.1/SymbolenverkeersbordenVV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\voorstel 5.1\vvtoevoeging5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C5CC9A-D29A-4CF3-8050-B60054496D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC0B7E-F550-4E8E-B158-0A1D07DF9232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{74978112-B7C2-481F-B02F-FC7358C1E258}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{74978112-B7C2-481F-B02F-FC7358C1E258}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbolen" sheetId="1" r:id="rId1"/>
@@ -1002,16 +1002,16 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>136</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>136</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>136</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>136</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>136</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>136</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>136</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>136</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>136</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>136</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>136</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>136</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>136</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>136</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>136</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>136</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>136</v>
       </c>
